--- a/xlsx/官制_intext.xlsx
+++ b/xlsx/官制_intext.xlsx
@@ -26,10 +26,10 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E4%BA%9E</t>
   </si>
   <si>
-    <t>東亞</t>
-  </si>
-  <si>
-    <t>政策_政策_檢討_官制</t>
+    <t>东亚</t>
+  </si>
+  <si>
+    <t>政策_政策_检讨_官制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%9D%E7%8E%8B</t>
@@ -47,19 +47,19 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9A%8E%E7%B4%9A</t>
   </si>
   <si>
-    <t>階級</t>
+    <t>阶级</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%8B%99%E5%93%A1</t>
   </si>
   <si>
-    <t>公務員</t>
+    <t>公务员</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B%E5%82%B3%E8%AA%AA%E6%99%82%E4%BB%A3</t>
   </si>
   <si>
-    <t>中國傳說時代</t>
+    <t>中国传说时代</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%8F%E6%9C%9D</t>
@@ -71,13 +71,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%80%83%E5%8F%A4%E5%AD%B8</t>
   </si>
   <si>
-    <t>考古學</t>
+    <t>考古学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B</t>
   </si>
   <si>
-    <t>中國</t>
+    <t>中国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%95%86%E6%9C%9D</t>
@@ -101,19 +101,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%94%90%E6%9C%9D%E5%AE%98%E8%81%B7%E8%A1%A8</t>
   </si>
   <si>
-    <t>唐朝官職表</t>
+    <t>唐朝官职表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%98%8E%E6%9C%9D%E5%AE%98%E8%81%B7%E8%A1%A8</t>
   </si>
   <si>
-    <t>明朝官職表</t>
+    <t>明朝官职表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B8%85%E6%9C%9D%E5%AE%98%E8%81%B7%E8%A1%A8</t>
   </si>
   <si>
-    <t>清朝官職表</t>
+    <t>清朝官职表</t>
   </si>
 </sst>
 </file>
